--- a/input_data/data_ground_truth/valores.xlsx
+++ b/input_data/data_ground_truth/valores.xlsx
@@ -429,7 +429,7 @@
       <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="24.58"/>
